--- a/outputs-HGR-r202-archive/g__Proteus.xlsx
+++ b/outputs-HGR-r202-archive/g__Proteus.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,11 +459,11 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1861.fa</t>
+          <t>even_MAG-GUT43440.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01796816099174947</v>
+        <v>0.4408786776011882</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -479,11 +479,11 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43440.fa</t>
+          <t>even_MAG-GUT91898.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4408786776011882</v>
+        <v>0.03508223360167051</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -491,46 +491,6 @@
         </is>
       </c>
       <c r="D3" t="inlineStr">
-        <is>
-          <t>s__Proteus mirabilis</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91702.fa</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.01643298445229746</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>s__Proteus mirabilis</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>s__Proteus mirabilis(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91898.fa</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.03508223360167051</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>s__Proteus mirabilis</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
         <is>
           <t>s__Proteus mirabilis</t>
         </is>
